--- a/biology/Botanique/Dermatophytose_de_la_peau_glabre/Dermatophytose_de_la_peau_glabre.xlsx
+++ b/biology/Botanique/Dermatophytose_de_la_peau_glabre/Dermatophytose_de_la_peau_glabre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dermatophytose de la peau glabre, ou herpès circiné, aussi appelé « roue de Sainte-Catherine »[Note 1], est une infection de la peau glabre, dépourvue de cheveux, provoquée par des champignons appelés dermatophytes. Malgré son nom, l'herpès circiné n'a rien de commun avec une infection par le virus de l'herpès (Herpes simplex virus).
 C'est la plus fréquente des épidermophyties, chez l'adulte et l'enfant.
@@ -513,10 +525,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La dermatophytose de la peau glabre est une mycose due à des champignons dermatophytes d'origine animale ou humaine. Les lésions cliniques apparaissent 1 à 3 semaines après le contact contaminant. La contamination se fait par contact direct entre la peau et le contaminant.
-Les champignons les plus fréquemment identifiés sont[1] :
+Les champignons les plus fréquemment identifiés sont :
 Microsporum canis : dermatophyte zoophile, transmis par des animaux (chats, chiens, rongeurs, chevaux, canards, …), touchant particulièrement les enfants ;
 Trichophyton rubrum : dermatophyte anthropophile, contamination inter-humaine ;
 Trichophyton mentagrophytes : dermatophyte géophile, contamination dite tellurique, par contact de la peau avec un sol infecté.</t>
@@ -547,7 +561,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est généralement clinique et ne nécessite pas d'examen complémentaire.
 L'herpès circiné se présente comme une ou plusieurs plaques érythémato-squameuses arrondies ou annulaires, à bords nets, s'étendant progressivement de façon excentrique, réalisant une lésion en cocarde, avec guérison centrale et extension centrifuge avec une bordure active inflammatoire.
@@ -583,9 +599,11 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les lésions annulaires de l'herpès circiné peuvent être confondues avec différentes affections dermatologiques[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les lésions annulaires de l'herpès circiné peuvent être confondues avec différentes affections dermatologiques :
 une lésion unique peut être confondue avec la lésion initiale d'un pityriasis rosé de Gibert. L'apparition de nombreuses lésions diffuses succédant cette lésion initiale redresse le diagnostic ;
 eczéma nummulaire ;
 granulome annulaire ;
@@ -621,11 +639,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas de lésions peu nombreuses, le traitement est local et repose sur des crèmes antifongiques (imidazolés, ciclopirox olamine, terbinafine) pendant deux à quatre semaines. Les crèmes doivent être appliquées quotidiennement, une à deux fois par jour, en dépassant de quelques centimètres les limites de la lésion.
 En cas de démangeaisons importantes, une crème corticoïde peut être associée en début de traitement. L'application de dermocorticoïdes seuls est contre-indiquée, car elle peut entrainer une aggravation importante de l'infection.
-En cas d'atteinte multiple et réfractaire, en cas d'atteinte du pli fessier, en cas d'application préalable de dermocorticoïdes, un traitement par voie orale peut être nécessaire, par antifongique per os tel que griséofulvine ou la terbinafine. La kétoconazole par voie orale n'a plus l'AMM pour cette indication en France[3].
+En cas d'atteinte multiple et réfractaire, en cas d'atteinte du pli fessier, en cas d'application préalable de dermocorticoïdes, un traitement par voie orale peut être nécessaire, par antifongique per os tel que griséofulvine ou la terbinafine. La kétoconazole par voie orale n'a plus l'AMM pour cette indication en France.
 </t>
         </is>
       </c>
@@ -655,6 +675,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
